--- a/backend/narcotics lexeye.xlsx
+++ b/backend/narcotics lexeye.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAJI LAPTOP\Desktop\LexEye\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="LexEye Law Template" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="221">
   <si>
     <t>Field</t>
   </si>
@@ -42,6 +42,9 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Drug &amp; Narcotics Law</t>
+  </si>
+  <si>
     <t>Jurisdiction</t>
   </si>
   <si>
@@ -164,7 +167,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,7 +177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -211,7 +214,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -221,7 +224,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -232,7 +235,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -242,7 +245,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -279,7 +282,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -289,7 +292,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -300,7 +303,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -310,7 +313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -321,7 +324,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -331,7 +334,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -368,7 +371,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -378,7 +381,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -415,7 +418,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -425,7 +428,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -436,7 +439,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -446,7 +449,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -483,7 +486,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -493,7 +496,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -504,7 +507,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -514,7 +517,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -551,7 +554,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -561,7 +564,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -572,7 +575,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -582,7 +585,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -619,7 +622,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -629,7 +632,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -640,7 +643,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -650,7 +653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -661,7 +664,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -671,7 +674,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -708,7 +711,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -718,7 +721,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -729,7 +732,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -739,7 +742,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -781,7 +784,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -792,7 +795,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -802,7 +805,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -813,7 +816,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -823,7 +826,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -862,7 +865,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -873,7 +876,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -883,7 +886,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -919,7 +922,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -930,7 +933,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -940,7 +943,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -976,7 +979,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -996,6 +999,9 @@
     <t>PPC 109–116 – Abetment for Helping Criminal Conspiracy</t>
   </si>
   <si>
+    <t>Drug Trafficking and Distribution</t>
+  </si>
+  <si>
     <t>This law covers involvement in any organized drug network or supply chain responsible for the movement and distribution of illegal drugs. It includes collaboration with importers, wholesalers, and street-level dealers. The offense applies to anyone who plans, coordinates, finances, or supports the transfer of narcotics through different stages, from production to consumer sale. Even indirect participation—such as providing resources, transport, or contacts—can lead to prosecution.</t>
   </si>
   <si>
@@ -1012,7 +1018,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1023,7 +1029,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1033,7 +1039,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1066,7 +1072,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1077,7 +1083,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1087,7 +1093,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1110,6 +1116,9 @@
     <t>PPC 292 – Sale, etc., of Obscene Books if Promoting Harmful Substances</t>
   </si>
   <si>
+    <t>Drug Promotion and Media Offenses</t>
+  </si>
+  <si>
     <t>This law prohibits advertising, promoting, or encouraging the use of illegal drugs through any form of media or communication. It includes newspapers, television, radio, internet, social media, posters, or verbal promotion. The law targets activities that glamorize or normalize drug use, share methods of obtaining drugs, or spread content that encourages substance abuse.</t>
   </si>
   <si>
@@ -1126,7 +1135,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1137,7 +1146,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1147,7 +1156,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1167,6 +1176,9 @@
     <t>PPC 411 – Dishonestly Receiving Stolen Property</t>
   </si>
   <si>
+    <t>Drug Financing and Money Laundering</t>
+  </si>
+  <si>
     <t>This offense involves providing money, financial support, or investment to individuals or organizations involved in drug trafficking or related activities. It includes funding drug operations, giving loans to drug dealers, investing in drug-related ventures, or covering costs such as transportation, equipment, or safehouses. Even indirect financial assistance that supports the drug trade is considered drug financing.</t>
   </si>
   <si>
@@ -1183,7 +1195,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1194,7 +1206,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1204,7 +1216,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1224,6 +1236,9 @@
     <t>PPC 109–116 – Abetment for Helping Criminal Activities</t>
   </si>
   <si>
+    <t>Drug Communication and Coordination Networks</t>
+  </si>
+  <si>
     <t>This law covers the creation, management, or participation in communication or information networks that assist drug criminals. It includes coordinating between drug dealers, sharing updates about police activities, managing contact lists, or operating online platforms that facilitate drug transactions. Even passing messages or maintaining communication between suppliers and distributors can be treated as participation in a drug information network.</t>
   </si>
   <si>
@@ -1240,7 +1255,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1251,7 +1266,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1261,7 +1276,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1281,6 +1296,9 @@
     <t>Enhanced Penalties under CNS Act</t>
   </si>
   <si>
+    <t>Repeat Drug Offenses</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">This section applies to individuals who commit drug-related crimes again after being previously convicted and punished for similar offenses. The law treats repeat offenders as more serious threats to society and imposes </t>
     </r>
@@ -1289,7 +1307,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1299,7 +1317,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1320,7 +1338,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1336,7 +1354,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1346,7 +1364,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1357,7 +1375,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1367,7 +1385,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1378,7 +1396,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1388,7 +1406,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1405,6 +1423,9 @@
     <t>166 – Public Servant Disobeying Direction of Law</t>
   </si>
   <si>
+    <t>Drug Crimes by Government Officials</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">This law applies when </t>
     </r>
@@ -1413,7 +1434,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1423,7 +1444,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1434,7 +1455,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1444,7 +1465,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1455,7 +1476,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1465,7 +1486,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1486,7 +1507,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1497,7 +1518,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1513,7 +1534,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1523,7 +1544,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1534,7 +1555,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1544,7 +1565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1555,7 +1576,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1565,7 +1586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1576,7 +1597,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1586,7 +1607,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1603,6 +1624,9 @@
     <t>No direct PPC section – Covered by CNS Act, 1997</t>
   </si>
   <si>
+    <t>International Drug Trafficking</t>
+  </si>
+  <si>
     <t>Federal / International</t>
   </si>
   <si>
@@ -1614,7 +1638,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1624,7 +1648,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1635,7 +1659,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1645,7 +1669,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1656,7 +1680,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1666,7 +1690,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1677,7 +1701,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1687,7 +1711,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1698,7 +1722,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1708,7 +1732,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1719,7 +1743,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1729,7 +1753,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1750,7 +1774,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1761,7 +1785,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1771,7 +1795,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1787,7 +1811,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1797,7 +1821,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1808,7 +1832,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1818,7 +1842,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1829,7 +1853,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1839,7 +1863,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1850,7 +1874,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1860,7 +1884,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1871,7 +1895,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1881,7 +1905,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1897,7 +1921,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1907,7 +1931,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1918,7 +1942,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1928,7 +1952,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1939,7 +1963,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1949,7 +1973,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1958,9 +1982,6 @@
   </si>
   <si>
     <t>Control of Narcotic Substances (CNS) Act, 1997; Customs Act, 1969; Anti-Money Laundering Act, 2010; UN Convention Against Illicit Traffic in Narcotic Drugs and Psychotropic Substances (1988).</t>
-  </si>
-  <si>
-    <t>Narcotics Law</t>
   </si>
 </sst>
 </file>
@@ -1971,7 +1992,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1979,7 +2000,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1987,7 +2008,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2336,17 +2357,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="A358" sqref="A358"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="A388" sqref="A388"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="247.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="247.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2354,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2362,7 +2383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2370,87 +2391,87 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>0</v>
       </c>
@@ -2458,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -2466,95 +2487,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>0</v>
       </c>
@@ -2562,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -2570,95 +2591,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>0</v>
       </c>
@@ -2666,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>2</v>
       </c>
@@ -2674,95 +2695,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B53" s="4">
         <v>2023</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>0</v>
       </c>
@@ -2770,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -2778,95 +2799,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B70" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
@@ -2874,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
@@ -2882,95 +2903,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B87" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
@@ -2978,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -2986,95 +3007,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B103" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>0</v>
       </c>
@@ -3082,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>2</v>
       </c>
@@ -3090,95 +3111,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B120" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>0</v>
       </c>
@@ -3186,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>2</v>
       </c>
@@ -3194,95 +3215,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B136" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>0</v>
       </c>
@@ -3290,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>2</v>
       </c>
@@ -3298,95 +3319,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B152" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>0</v>
       </c>
@@ -3394,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>2</v>
       </c>
@@ -3402,95 +3423,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B168" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>0</v>
       </c>
@@ -3498,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>2</v>
       </c>
@@ -3506,95 +3527,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B184" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>0</v>
       </c>
@@ -3602,103 +3623,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B200" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>0</v>
       </c>
@@ -3706,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>2</v>
       </c>
@@ -3714,95 +3735,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B216" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
         <v>0</v>
       </c>
@@ -3810,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
         <v>2</v>
       </c>
@@ -3818,95 +3839,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B232" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
         <v>0</v>
       </c>
@@ -3914,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>2</v>
       </c>
@@ -3922,95 +3943,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B248" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
         <v>0</v>
       </c>
@@ -4018,7 +4039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
         <v>2</v>
       </c>
@@ -4026,95 +4047,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B264" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
         <v>0</v>
       </c>
@@ -4122,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
         <v>2</v>
       </c>
@@ -4130,95 +4151,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B281" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
         <v>0</v>
       </c>
@@ -4226,103 +4247,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B298" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
         <v>0</v>
       </c>
@@ -4330,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
         <v>2</v>
       </c>
@@ -4338,95 +4359,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A312" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A313" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A314" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B314" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A315" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A317" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
         <v>0</v>
       </c>
@@ -4434,7 +4455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
         <v>2</v>
       </c>
@@ -4442,95 +4463,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B331" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
         <v>0</v>
       </c>
@@ -4538,7 +4559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
         <v>2</v>
       </c>
@@ -4546,95 +4567,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B347" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A349" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A350" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A352" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A353" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
         <v>0</v>
       </c>
@@ -4642,103 +4663,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A360" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A361" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A363" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B363" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A365" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A367" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A368" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A370" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A373" s="5" t="s">
         <v>2</v>
       </c>
@@ -4746,92 +4767,92 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A374" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A375" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B375" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A376" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B376" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A377" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B377" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A378" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A379" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A380" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A381" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A382" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A383" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A384" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
